--- a/pred_result/test_12_30_2_expert.xlsx
+++ b/pred_result/test_12_30_2_expert.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\pred_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D20C3673-1CBC-4DF5-A511-C5A203570910}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71764FC2-415C-4C38-AB6C-9B3EBBCA0913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13536" windowHeight="8148"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13536" windowHeight="8148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_12_30_2_expert" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -937,11 +937,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="F262" sqref="F262"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1589,7 +1589,7 @@
         <v>20</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4921,7 +4921,7 @@
         <v>55</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5023,7 +5023,7 @@
         <v>61</v>
       </c>
       <c r="F240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5040,7 +5040,7 @@
         <v>62</v>
       </c>
       <c r="F241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -10225,7 +10225,7 @@
         <v>367</v>
       </c>
       <c r="F546">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -11629,18 +11629,18 @@
       </c>
       <c r="H628">
         <f>COUNTIFS(B2:B626,B622,F2:F626,F614)</f>
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I628">
         <v>17</v>
       </c>
       <c r="J628">
         <f>COUNTIFS(B2:B626,B624,F2:F626,F610)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K628">
         <f>COUNTIFS(B2:B626,B624,F2:F626,F616)</f>
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="630" spans="1:12">
@@ -11663,23 +11663,23 @@
     <row r="631" spans="1:12">
       <c r="H631">
         <f>(H628+K628)/(H628+I628+J628+K628)</f>
-        <v>0.96634615384615385</v>
+        <v>0.9598715890850722</v>
       </c>
       <c r="I631">
         <f>H628/(H628+I628)</f>
-        <v>0.95843520782396086</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="J631">
         <f>H628/(H628+J628)</f>
-        <v>0.98989898989898994</v>
+        <v>0.97994987468671679</v>
       </c>
       <c r="K631">
         <f>K628/(I628+K628)</f>
-        <v>0.92543859649122806</v>
+        <v>0.9241071428571429</v>
       </c>
       <c r="L631">
         <f>(2*J631*I631)/(J631+I631)</f>
-        <v>0.9739130434782608</v>
+        <v>0.96902106567534063</v>
       </c>
     </row>
   </sheetData>

--- a/pred_result/test_12_30_2_expert.xlsx
+++ b/pred_result/test_12_30_2_expert.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\pred_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71764FC2-415C-4C38-AB6C-9B3EBBCA0913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349CED9B-BF41-49B6-8993-70F30F6C640A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13536" windowHeight="8148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="F235" sqref="F235"/>
+    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
+      <selection activeCell="K247" sqref="K247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4921,7 +4921,7 @@
         <v>55</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -11629,10 +11629,11 @@
       </c>
       <c r="H628">
         <f>COUNTIFS(B2:B626,B622,F2:F626,F614)</f>
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I628">
-        <v>17</v>
+        <f>COUNTIFS(B2:B626,B622,F2:F626,F616)</f>
+        <v>18</v>
       </c>
       <c r="J628">
         <f>COUNTIFS(B2:B626,B624,F2:F626,F610)</f>
@@ -11663,23 +11664,23 @@
     <row r="631" spans="1:12">
       <c r="H631">
         <f>(H628+K628)/(H628+I628+J628+K628)</f>
-        <v>0.9598715890850722</v>
+        <v>0.95840000000000003</v>
       </c>
       <c r="I631">
         <f>H628/(H628+I628)</f>
-        <v>0.95833333333333337</v>
+        <v>0.95609756097560972</v>
       </c>
       <c r="J631">
         <f>H628/(H628+J628)</f>
-        <v>0.97994987468671679</v>
+        <v>0.98</v>
       </c>
       <c r="K631">
         <f>K628/(I628+K628)</f>
-        <v>0.9241071428571429</v>
+        <v>0.92</v>
       </c>
       <c r="L631">
         <f>(2*J631*I631)/(J631+I631)</f>
-        <v>0.96902106567534063</v>
+        <v>0.96790123456790123</v>
       </c>
     </row>
   </sheetData>

--- a/pred_result/test_12_30_2_expert.xlsx
+++ b/pred_result/test_12_30_2_expert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin.H115\git\auto-encoder\pred_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349CED9B-BF41-49B6-8993-70F30F6C640A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2670670A-E1F0-455D-BCF1-1051E6D146F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13536" windowHeight="8148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="K247" sqref="K247"/>
+    <sheetView tabSelected="1" topLeftCell="B616" workbookViewId="0">
+      <selection activeCell="F547" sqref="F547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8406,7 +8406,7 @@
         <v>260</v>
       </c>
       <c r="F439">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -10225,7 +10225,7 @@
         <v>367</v>
       </c>
       <c r="F546">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -11637,11 +11637,11 @@
       </c>
       <c r="J628">
         <f>COUNTIFS(B2:B626,B624,F2:F626,F610)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K628">
         <f>COUNTIFS(B2:B626,B624,F2:F626,F616)</f>
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="630" spans="1:12">
@@ -11664,7 +11664,7 @@
     <row r="631" spans="1:12">
       <c r="H631">
         <f>(H628+K628)/(H628+I628+J628+K628)</f>
-        <v>0.95840000000000003</v>
+        <v>0.96160000000000001</v>
       </c>
       <c r="I631">
         <f>H628/(H628+I628)</f>
@@ -11672,15 +11672,15 @@
       </c>
       <c r="J631">
         <f>H628/(H628+J628)</f>
-        <v>0.98</v>
+        <v>0.98492462311557794</v>
       </c>
       <c r="K631">
         <f>K628/(I628+K628)</f>
-        <v>0.92</v>
+        <v>0.92070484581497802</v>
       </c>
       <c r="L631">
         <f>(2*J631*I631)/(J631+I631)</f>
-        <v>0.96790123456790123</v>
+        <v>0.97029702970297027</v>
       </c>
     </row>
   </sheetData>
